--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864E504B-4EAC-4C8A-A83B-A96891ABAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F89BC8-F53C-4D40-B5CE-08FF7CD91092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="8160" windowWidth="21600" windowHeight="11295" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F89BC8-F53C-4D40-B5CE-08FF7CD91092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35241C91-0E65-482A-9CC4-8D0615DEFD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Quản lý đơn nhận</t>
   </si>
   <si>
-    <t>*Cụ thể từng mục bên trong để nhập sách</t>
-  </si>
-  <si>
     <t>Báo cáo nhận sách - phân kho</t>
   </si>
   <si>
@@ -186,21 +183,63 @@
     <t>Quản lý danh mục thanh lý</t>
   </si>
   <si>
-    <t>Chưa hiểu</t>
-  </si>
-  <si>
     <t>chưa hiểu chổ mật khẩu</t>
+  </si>
+  <si>
+    <t>tai_lieu -&gt; thu_muc.id_thu_muc</t>
+  </si>
+  <si>
+    <t>doi_tuong_ban_doc</t>
+  </si>
+  <si>
+    <t>kho_an_pham</t>
+  </si>
+  <si>
+    <t>diem_luu_thong -&gt; kho_an_pham.id_kho_an_pham</t>
+  </si>
+  <si>
+    <t>doi_tuong_ban_doc -&gt; id_diem_luu_thong || thiet_lap_dlt (id_diem_luu_thong || Muon || Giu || Gia Han || id_doi_tuong_ban_doc)</t>
+  </si>
+  <si>
+    <t>phat_ban_doc</t>
+  </si>
+  <si>
+    <t>nha_cung_cap - DANHMUC</t>
+  </si>
+  <si>
+    <t>trang_thai_don - DANHMUC</t>
+  </si>
+  <si>
+    <t>nguon_bo_sung - DANHMUC</t>
+  </si>
+  <si>
+    <t>loai_nhap - DANHMUC (KHONG CO)</t>
+  </si>
+  <si>
+    <t>chi_tiet_don_nhan -&gt; sl_ten (count id_), ban(sumSL), tri_gia(sumThanhTIen)</t>
+  </si>
+  <si>
+    <t>chi_tiet_don_nhan</t>
+  </si>
+  <si>
+    <t>Nhan đề, Tác giả, NXB, Nhà ,XB, Nơi XB ,Giá ,SL ,T tiền</t>
+  </si>
+  <si>
+    <t>don_nhan -&gt; nha_cung_cap, trang_thai_don, nguon_bo_sung, loai_nhap, sl_ten (count id_), ban(sumSL), tri_gia(sumThanhTIen)</t>
+  </si>
+  <si>
+    <t>Gán số DKCB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +247,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +255,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +263,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -232,20 +271,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +316,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -283,14 +336,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -606,272 +661,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="29.90625" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="44.25" customWidth="1"/>
+    <col min="3" max="3" width="96.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="C26" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+      <c r="C34" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
+    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
+    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="46" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+    <row r="47" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>52</v>
+    <row r="50" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\qltv.vlute.edu.vn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35241C91-0E65-482A-9CC4-8D0615DEFD4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D99A1-B8F5-4C48-BBCF-CD320D18FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Gán số DKCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Làm rồi </t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +250,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -255,7 +258,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -263,7 +266,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -271,14 +274,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -287,7 +290,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -336,14 +339,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -663,18 +665,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.90625" customWidth="1"/>
+    <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="96.6328125" customWidth="1"/>
+    <col min="3" max="3" width="96.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -682,37 +684,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
@@ -720,12 +731,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -733,7 +744,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
@@ -741,33 +752,33 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
@@ -775,60 +786,59 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>24</v>
       </c>
@@ -836,7 +846,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
@@ -844,7 +854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
@@ -852,7 +862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>29</v>
       </c>
@@ -860,17 +870,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
@@ -878,17 +888,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>36</v>
       </c>
@@ -896,52 +906,52 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>47</v>
       </c>
@@ -949,42 +959,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>63</v>
       </c>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21D99A1-B8F5-4C48-BBCF-CD320D18FCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFC520-9C25-40CC-B163-0D40A6A70231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -666,7 +666,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -717,6 +717,9 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BFC520-9C25-40CC-B163-0D40A6A70231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA867312-037B-4836-91FD-546D8EB0C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -232,13 +232,67 @@
   </si>
   <si>
     <t xml:space="preserve">Làm rồi </t>
+  </si>
+  <si>
+    <t>Làm rồi; Chưa làm chi tiết danh sách lớp gồm bao nhiêu sinh viên</t>
+  </si>
+  <si>
+    <t>Các table liên quan</t>
+  </si>
+  <si>
+    <t>don_vi</t>
+  </si>
+  <si>
+    <t>chuc_vu</t>
+  </si>
+  <si>
+    <t>hoc_ky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lop_hoc </t>
+  </si>
+  <si>
+    <t>chuyen_nganh</t>
+  </si>
+  <si>
+    <t>tai_lieu</t>
+  </si>
+  <si>
+    <t>diem_luu_thong</t>
+  </si>
+  <si>
+    <t>diem_luu_thong.id_kho_an_pham = kho_an_pham.id_kho_an_pham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSO </t>
+  </si>
+  <si>
+    <t>chi_tiet_tham_so_lt</t>
+  </si>
+  <si>
+    <t>id_kho_an_pham.id_kho_an_pham = chi_tiet_tham_so_lt.id_kho_an_pham</t>
+  </si>
+  <si>
+    <t>Danh mục nghiệp vụ bổ sung</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Trạng thái đơn</t>
+  </si>
+  <si>
+    <t>Loại nhập (Tặng, mua, cấp, khác)</t>
+  </si>
+  <si>
+    <t>Nguồn nhận</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +348,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -339,15 +406,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -663,347 +760,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.875" customWidth="1"/>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="96.625" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="96.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
+    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="5" t="s">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
+    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+    <row r="16" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
+    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="5" t="s">
+    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7" t="s">
+    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="33" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+    <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D34" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="36" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+    <row r="37" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
+    <row r="38" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+    <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="40" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="42" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
+    <row r="43" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
+    <row r="44" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+    <row r="45" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
+    <row r="46" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="47" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
+    <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
+    <row r="49" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+    <row r="50" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+    <row r="51" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
+    <row r="52" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="53" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="54" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="1" t="s">
+    <row r="55" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="56" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="59" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+    <row r="60" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+    <row r="61" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
+    <row r="62" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" t="s">
+    <row r="64" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA867312-037B-4836-91FD-546D8EB0C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F527428-7246-4AE4-BCAA-A63185FFBC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="4305" yWindow="0" windowWidth="30450" windowHeight="20985" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Quản lý danh mục thanh lý</t>
   </si>
   <si>
-    <t>chưa hiểu chổ mật khẩu</t>
-  </si>
-  <si>
     <t>tai_lieu -&gt; thu_muc.id_thu_muc</t>
   </si>
   <si>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>Nguồn nhận</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chỉnh sửa được hạn thẻ </t>
+  </si>
+  <si>
+    <t>Làm như ems. Tra theo mssv hoặc họ tên</t>
   </si>
 </sst>
 </file>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -776,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,96 +794,96 @@
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="13"/>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="13"/>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -893,13 +896,13 @@
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,50 +915,50 @@
     <row r="16" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -967,13 +970,13 @@
     <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,7 +988,7 @@
     <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -1005,20 +1008,20 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,13 +1058,13 @@
     </row>
     <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,13 +1089,16 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D38" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
@@ -1197,27 +1203,27 @@
     </row>
     <row r="59" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F527428-7246-4AE4-BCAA-A63185FFBC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1D955-1C1E-4289-835E-691025D1C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="0" windowWidth="30450" windowHeight="20985" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -289,6 +289,18 @@
   </si>
   <si>
     <t>Làm như ems. Tra theo mssv hoặc họ tên</t>
+  </si>
+  <si>
+    <t>nha_cung_cap</t>
+  </si>
+  <si>
+    <t>trang_thai_don</t>
+  </si>
+  <si>
+    <t>nguon_nhan</t>
+  </si>
+  <si>
+    <t>loai_nhap</t>
   </si>
 </sst>
 </file>
@@ -765,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -860,28 +872,36 @@
     </row>
     <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>84</v>
       </c>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B1D955-1C1E-4289-835E-691025D1C8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9879BF-291F-494D-A90A-9182F00472A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1023,24 +1023,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
+    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
+    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
     </row>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9879BF-291F-494D-A90A-9182F00472A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3937768-8F30-4F46-9E3E-6A3EBB455A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
+      <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
     </row>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3937768-8F30-4F46-9E3E-6A3EBB455A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702E272-DD5E-4C44-8997-296F7041F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +376,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -403,8 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,18 +424,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -437,9 +444,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -457,11 +461,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -775,37 +778,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="62.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.375" style="8" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="96.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -816,8 +819,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -828,8 +831,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -840,8 +843,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -852,8 +855,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -864,15 +867,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -880,8 +883,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -889,8 +892,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -898,8 +901,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -907,15 +910,15 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -926,15 +929,15 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -944,9 +947,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -956,16 +959,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -975,21 +978,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7" t="s">
         <v>57</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -999,31 +1002,31 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+    <row r="23" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="10"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>63</v>
       </c>
@@ -1039,34 +1042,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="6" t="s">
+    <row r="29" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+    <row r="31" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1076,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -1087,8 +1086,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
+    <row r="35" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D35" t="s">
@@ -1096,10 +1095,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
@@ -1126,10 +1125,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1198,10 +1197,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
         <v>48</v>
       </c>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6702E272-DD5E-4C44-8997-296F7041F71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181ABB2-163D-42C8-8A3A-1B9150C641F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1181ABB2-163D-42C8-8A3A-1B9150C641F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B3FDF-0C9C-40FA-9EAB-B199EDF3D088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -288,9 +288,6 @@
     <t xml:space="preserve">Chỉnh sửa được hạn thẻ </t>
   </si>
   <si>
-    <t>Làm như ems. Tra theo mssv hoặc họ tên</t>
-  </si>
-  <si>
     <t>nha_cung_cap</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>loai_nhap</t>
+  </si>
+  <si>
+    <t>gộp với nhập mới bạn đọc</t>
   </si>
 </sst>
 </file>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -876,7 +876,7 @@
     <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>82</v>
@@ -885,7 +885,7 @@
     <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>83</v>
@@ -894,7 +894,7 @@
     <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>85</v>
@@ -903,7 +903,7 @@
     <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>84</v>
@@ -1116,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B3FDF-0C9C-40FA-9EAB-B199EDF3D088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3FFC7C-2896-4BC6-A95A-FC7F9A36699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3FFC7C-2896-4BC6-A95A-FC7F9A36699D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A7EF1-B10E-42EF-B6F5-6F73D99E1801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>DANH MỤC</t>
   </si>
@@ -199,21 +199,6 @@
   </si>
   <si>
     <t>phat_ban_doc</t>
-  </si>
-  <si>
-    <t>nha_cung_cap - DANHMUC</t>
-  </si>
-  <si>
-    <t>trang_thai_don - DANHMUC</t>
-  </si>
-  <si>
-    <t>nguon_bo_sung - DANHMUC</t>
-  </si>
-  <si>
-    <t>loai_nhap - DANHMUC (KHONG CO)</t>
-  </si>
-  <si>
-    <t>chi_tiet_don_nhan -&gt; sl_ten (count id_), ban(sumSL), tri_gia(sumThanhTIen)</t>
   </si>
   <si>
     <t>chi_tiet_don_nhan</t>
@@ -778,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -794,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -809,104 +794,104 @@
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="11"/>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -919,7 +904,7 @@
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>8</v>
@@ -950,7 +935,7 @@
     <row r="17" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
@@ -962,14 +947,14 @@
     <row r="18" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
@@ -981,7 +966,7 @@
     <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -1011,7 +996,7 @@
     <row r="24" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
@@ -1031,26 +1016,26 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1108,7 +1093,7 @@
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1101,7 @@
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1134,12 +1119,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
+      <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
+      <c r="C42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1162,17 +1147,17 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+      <c r="D46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" t="s">
+      <c r="D48" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1218,31 +1203,6 @@
     <row r="56" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A7EF1-B10E-42EF-B6F5-6F73D99E1801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C86626-5D30-4D1C-BC3C-BEC5BE1E3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -766,7 +766,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C86626-5D30-4D1C-BC3C-BEC5BE1E3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DDCEF-5CDE-46D9-9C84-737CA2467851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D32D401-AE19-4F1D-90AE-44C4E7CF1721}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1162,7 +1162,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
+      <c r="D49" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80DDCEF-5CDE-46D9-9C84-737CA2467851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85FBF9-B99B-41A9-ADFE-58B7C1F0C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1142,7 +1142,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
+      <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
     </row>

--- a/GIAO DIEN PMQLTV.xlsx
+++ b/GIAO DIEN PMQLTV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkspaceProject\Web\Project_main\qltv.vlute.edu.vn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C85FBF9-B99B-41A9-ADFE-58B7C1F0C428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE442A6-43E7-48B7-9223-CAA3D0634A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
+    <workbookView xWindow="38280" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{2601CAB7-A912-4D99-BF3D-292060C84A98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,12 +1172,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
+      <c r="C52" s="4" t="s">
         <v>46</v>
       </c>
     </row>
